--- a/output/1Y_P62_1VAL-D.xlsx
+++ b/output/1Y_P62_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.9097</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>628.5474</v>
       </c>
-      <c r="G2" s="1">
-        <v>628.5474</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1448</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9097</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1448</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>15.3909</v>
       </c>
+      <c r="E3" s="1">
+        <v>628.5474</v>
+      </c>
       <c r="F3" s="1">
         <v>649.7346</v>
       </c>
-      <c r="G3" s="1">
-        <v>1278.2819</v>
-      </c>
       <c r="H3" s="1">
-        <v>19571.9027</v>
+        <v>9623.7515</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.646</v>
+        <v>9623.7515</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9097</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19571.9027</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.1095</v>
       </c>
+      <c r="E4" s="1">
+        <v>1278.2819</v>
+      </c>
       <c r="F4" s="1">
         <v>620.7517</v>
       </c>
-      <c r="G4" s="1">
-        <v>1899.0337</v>
-      </c>
       <c r="H4" s="1">
-        <v>30433.9137</v>
+        <v>20485.7465</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7975</v>
+        <v>20485.7465</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.646</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30433.9137</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0291</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.1222</v>
       </c>
+      <c r="E5" s="1">
+        <v>1899.0337</v>
+      </c>
       <c r="F5" s="1">
         <v>620.2627</v>
       </c>
-      <c r="G5" s="1">
-        <v>2519.2964</v>
-      </c>
       <c r="H5" s="1">
-        <v>40405.9876</v>
+        <v>30457.8415</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8774</v>
+        <v>30457.8415</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15.7975</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>341.8261</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9658.1739</v>
+        <v>230.0908</v>
       </c>
       <c r="O5" s="1">
-        <v>341.8261</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40747.8136</v>
+        <v>-9769.9092</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0078</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.3453</v>
       </c>
+      <c r="E6" s="1">
+        <v>2519.2964</v>
+      </c>
       <c r="F6" s="1">
-        <v>578.9884</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3098.2849</v>
+        <v>578.1832000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>53461.8348</v>
+        <v>43471.2155</v>
       </c>
       <c r="I6" s="1">
-        <v>50042.7283</v>
+        <v>230.0908</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1518</v>
+        <v>43701.3063</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40028.7613</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.8889</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>299.0978</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>53760.9326</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0594</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.8769</v>
       </c>
+      <c r="E7" s="1">
+        <v>3097.4796</v>
+      </c>
       <c r="F7" s="1">
-        <v>561.7712</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3660.0561</v>
+        <v>560.99</v>
       </c>
       <c r="H7" s="1">
-        <v>65091.1698</v>
+        <v>55086.1974</v>
       </c>
       <c r="I7" s="1">
-        <v>60085.4565</v>
+        <v>201.3294</v>
       </c>
       <c r="J7" s="1">
-        <v>16.4165</v>
+        <v>55287.5268</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50057.5227</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.1607</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>256.3695</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65347.5393</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0249</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.8772</v>
       </c>
+      <c r="E8" s="1">
+        <v>3658.4696</v>
+      </c>
       <c r="F8" s="1">
-        <v>561.7618</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4221.8179</v>
+        <v>560.9805</v>
       </c>
       <c r="H8" s="1">
-        <v>75082.9207</v>
+        <v>65064.0525</v>
       </c>
       <c r="I8" s="1">
-        <v>70128.1848</v>
+        <v>172.5681</v>
       </c>
       <c r="J8" s="1">
-        <v>16.6109</v>
+        <v>65236.6206</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60086.284</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4239</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>213.6413</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>75296.56200000001</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0007</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.1874</v>
       </c>
+      <c r="E9" s="1">
+        <v>4219.4501</v>
+      </c>
       <c r="F9" s="1">
-        <v>552.1805000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4773.9985</v>
+        <v>551.4126</v>
       </c>
       <c r="H9" s="1">
-        <v>86376.4314</v>
+        <v>76342.9332</v>
       </c>
       <c r="I9" s="1">
-        <v>80170.913</v>
+        <v>143.8067</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7932</v>
+        <v>76486.74000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70115.0454</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6171</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>170.913</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>86547.3444</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0147</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.6132</v>
       </c>
+      <c r="E10" s="1">
+        <v>4770.8627</v>
+      </c>
       <c r="F10" s="1">
-        <v>570.1819</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5344.1804</v>
+        <v>569.3889</v>
       </c>
       <c r="H10" s="1">
-        <v>93639.6597</v>
+        <v>83594.10249999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90213.6413</v>
+        <v>115.0454</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8807</v>
+        <v>83709.1479</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80143.8067</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7986</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>128.1848</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93767.8444</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0288</v>
+        <v>-0.0321</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.806</v>
       </c>
+      <c r="E11" s="1">
+        <v>5340.2517</v>
+      </c>
       <c r="F11" s="1">
-        <v>564.0081</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5908.1885</v>
+        <v>563.2237</v>
       </c>
       <c r="H11" s="1">
-        <v>104655.8782</v>
+        <v>94595.61599999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100256.3695</v>
+        <v>86.28400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9691</v>
+        <v>94681.89999999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90172.5681</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8855</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>85.45650000000001</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>104741.3347</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0094</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.3524</v>
       </c>
+      <c r="E12" s="1">
+        <v>5903.4754</v>
+      </c>
       <c r="F12" s="1">
-        <v>547.2161</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6455.4045</v>
+        <v>546.455</v>
       </c>
       <c r="H12" s="1">
-        <v>117857.6119</v>
+        <v>107780.9307</v>
       </c>
       <c r="I12" s="1">
-        <v>110299.0978</v>
+        <v>57.5227</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0863</v>
+        <v>107838.4533</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100201.3294</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9733</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>42.7283</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>117900.3402</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0275</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E13" s="1">
+        <v>6449.9304</v>
+      </c>
       <c r="F13" s="1">
-        <v>564.6011</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7020.0056</v>
+        <v>563.8158</v>
       </c>
       <c r="H13" s="1">
-        <v>124219.7011</v>
+        <v>114132.1636</v>
       </c>
       <c r="I13" s="1">
-        <v>120341.8261</v>
+        <v>28.7613</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1427</v>
+        <v>114160.9249</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110230.0908</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0901</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10042.7283</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124219.7011</v>
+        <v>-10028.7613</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0288</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E14" s="1">
+        <v>7013.7462</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7020.0056</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6449.9304</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126478.1846</v>
       </c>
       <c r="I14" s="1">
-        <v>120341.8261</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1427</v>
+        <v>126478.1846</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110230.0908</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7163</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126591.059</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126591.059</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126591.059</v>
+        <v>116310.9501</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0568</v>
+        <v>0.0187</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.9097</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>628.5474</v>
       </c>
       <c r="G2" s="1">
-        <v>628.5474</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1448</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9097</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1448</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>15.3909</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>628.5474</v>
       </c>
       <c r="F3" s="1">
         <v>649.7346</v>
       </c>
       <c r="G3" s="1">
-        <v>1278.2819</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19571.9027</v>
+        <v>9623.7515</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.646</v>
+        <v>9623.7515</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9097</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19571.9027</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.1095</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1278.2819</v>
       </c>
       <c r="F4" s="1">
         <v>593.6761</v>
       </c>
       <c r="G4" s="1">
-        <v>1871.9581</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20485.7465</v>
       </c>
       <c r="I4" s="1">
-        <v>29563.8255</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.793</v>
+        <v>20485.7465</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19563.8255</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.3048</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9563.825500000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>436.1745</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30436.1745</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0292</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.1222</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1871.9581</v>
       </c>
       <c r="F5" s="1">
         <v>622.0252</v>
       </c>
       <c r="G5" s="1">
-        <v>2493.9833</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30023.5867</v>
       </c>
       <c r="I5" s="1">
-        <v>39592.2401</v>
+        <v>436.1745</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8751</v>
+        <v>30459.7612</v>
       </c>
       <c r="K5" s="1">
+        <v>29592.2401</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15.8082</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>336.9525</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9691.4622</v>
+        <v>230.0908</v>
       </c>
       <c r="O5" s="1">
-        <v>744.7124</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40744.7124</v>
+        <v>-9798.323899999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0076</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.3453</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2493.9833</v>
       </c>
       <c r="F6" s="1">
         <v>403.6772</v>
       </c>
       <c r="G6" s="1">
-        <v>2897.6604</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>43034.4294</v>
       </c>
       <c r="I6" s="1">
-        <v>46594.1416</v>
+        <v>637.8507</v>
       </c>
       <c r="J6" s="1">
-        <v>16.0799</v>
+        <v>43672.2801</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36594.1416</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.673</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7001.9015</v>
       </c>
-      <c r="O6" s="1">
-        <v>3742.8108</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53742.8108</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0591</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.8769</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2897.6604</v>
       </c>
       <c r="F7" s="1">
         <v>476.1208</v>
       </c>
       <c r="G7" s="1">
-        <v>3373.7812</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51532.5726</v>
       </c>
       <c r="I7" s="1">
-        <v>55105.7054</v>
+        <v>3635.9491</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3335</v>
+        <v>55168.5217</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45105.7054</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.5662</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8511.5638</v>
       </c>
-      <c r="O7" s="1">
-        <v>5231.2471</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65231.2471</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0234</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,40 +1774,40 @@
         <v>17.8772</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3373.7812</v>
       </c>
       <c r="F8" s="1">
         <v>562.2305</v>
       </c>
       <c r="G8" s="1">
-        <v>3936.0117</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60001.0121</v>
       </c>
       <c r="I8" s="1">
-        <v>65156.812</v>
+        <v>5124.3853</v>
       </c>
       <c r="J8" s="1">
-        <v>16.554</v>
+        <v>65125.3975</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55156.812</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3487</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10051.1066</v>
-      </c>
-      <c r="O8" s="1">
-        <v>5180.1404</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75180.1404</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0007</v>
@@ -1836,43 +1827,43 @@
         <v>18.1874</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3936.0117</v>
       </c>
       <c r="F9" s="1">
         <v>485.5634</v>
       </c>
       <c r="G9" s="1">
-        <v>4421.5751</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>71214.6532</v>
       </c>
       <c r="I9" s="1">
-        <v>73987.9474</v>
+        <v>5073.2787</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7334</v>
+        <v>76287.9319</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63987.9474</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2571</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8831.135399999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>6349.005</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86349.005</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0137</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.6132</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4421.5751</v>
       </c>
       <c r="F10" s="1">
         <v>714.8835</v>
       </c>
       <c r="G10" s="1">
-        <v>5136.4586</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>77473.95419999999</v>
       </c>
       <c r="I10" s="1">
-        <v>86579.3336</v>
+        <v>6242.1433</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8558</v>
+        <v>83716.0975</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76579.3336</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3195</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12591.3862</v>
       </c>
-      <c r="O10" s="1">
-        <v>3757.6188</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93757.6188</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0269</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.806</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5136.4586</v>
       </c>
       <c r="F11" s="1">
         <v>508.8894</v>
       </c>
       <c r="G11" s="1">
-        <v>5645.348</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90985.68640000001</v>
       </c>
       <c r="I11" s="1">
-        <v>95640.6177</v>
+        <v>3650.7571</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9415</v>
+        <v>94636.44349999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>85640.6177</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6731</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9061.284100000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>4696.3347</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104696.3347</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.008999999999999999</v>
+        <v>0.0098</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.3524</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5645.348</v>
       </c>
       <c r="F12" s="1">
         <v>379.6723</v>
       </c>
       <c r="G12" s="1">
-        <v>6025.0203</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103068.2466</v>
       </c>
       <c r="I12" s="1">
-        <v>102608.5159</v>
+        <v>4589.473</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0304</v>
+        <v>107657.7196</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92608.5159</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.4044</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6967.8982</v>
       </c>
-      <c r="O12" s="1">
-        <v>7728.4365</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117728.4365</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0264</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.7873</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6025.0203</v>
       </c>
       <c r="F13" s="1">
         <v>756.5181</v>
       </c>
       <c r="G13" s="1">
-        <v>6781.5384</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106613.3361</v>
       </c>
       <c r="I13" s="1">
-        <v>116064.9308</v>
+        <v>7621.5748</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1148</v>
+        <v>114234.9109</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106064.9308</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6041</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13456.4149</v>
       </c>
-      <c r="O13" s="1">
-        <v>4272.0217</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124272.0217</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0271</v>
+        <v>-0.0291</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.1269</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6781.5384</v>
       </c>
       <c r="F14" s="1">
         <v>-6781.5384</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>122290.8037</v>
       </c>
       <c r="I14" s="1">
-        <v>116064.9308</v>
+        <v>4165.16</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1148</v>
+        <v>126455.9636</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106064.9308</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6402</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>122290.8037</v>
       </c>
-      <c r="O14" s="1">
-        <v>126562.8253</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126562.8253</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0574</v>
+        <v>0.0179</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.9097</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>628.5474</v>
       </c>
       <c r="G2" s="1">
-        <v>628.5474</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1448</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9097</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1448</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>15.3909</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>628.5474</v>
       </c>
       <c r="F3" s="1">
         <v>649.7346</v>
       </c>
       <c r="G3" s="1">
-        <v>1278.2819</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19571.9027</v>
+        <v>9623.7515</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.646</v>
+        <v>9623.7515</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9097</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19571.9027</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.1095</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1278.2819</v>
       </c>
       <c r="F4" s="1">
         <v>603.0515</v>
       </c>
       <c r="G4" s="1">
-        <v>1881.3335</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20485.7465</v>
       </c>
       <c r="I4" s="1">
-        <v>29714.8583</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7946</v>
+        <v>20485.7465</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19714.8583</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.4229</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9714.8583</v>
       </c>
-      <c r="O4" s="1">
-        <v>285.1417</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30435.3917</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0292</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.1222</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1881.3335</v>
       </c>
       <c r="F5" s="1">
         <v>631.4171</v>
       </c>
       <c r="G5" s="1">
-        <v>2512.7506</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0013</v>
+        <v>30173.9548</v>
       </c>
       <c r="I5" s="1">
-        <v>39894.6912</v>
+        <v>285.1417</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8769</v>
+        <v>30459.0965</v>
       </c>
       <c r="K5" s="1">
+        <v>29894.6912</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15.8902</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>338.64</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9841.1929</v>
+        <v>230.0908</v>
       </c>
       <c r="O5" s="1">
-        <v>443.9488</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40744.95</v>
+        <v>-9949.742200000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0077</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.3453</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2512.7506</v>
       </c>
       <c r="F6" s="1">
         <v>414.0317</v>
       </c>
       <c r="G6" s="1">
-        <v>2926.7823</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>43358.2649</v>
       </c>
       <c r="I6" s="1">
-        <v>47076.1955</v>
+        <v>335.3995</v>
       </c>
       <c r="J6" s="1">
-        <v>16.0846</v>
+        <v>43693.6644</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37076.1955</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.7552</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7181.5042</v>
       </c>
-      <c r="O6" s="1">
-        <v>3262.4446</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53764.9508</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0595</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.8769</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2926.7823</v>
       </c>
       <c r="F7" s="1">
         <v>489.4534</v>
       </c>
       <c r="G7" s="1">
-        <v>3416.2357</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>52050.4814</v>
       </c>
       <c r="I7" s="1">
-        <v>55826.1052</v>
+        <v>3153.8953</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3414</v>
+        <v>55204.3767</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45826.1052</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6575</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8749.9097</v>
       </c>
-      <c r="O7" s="1">
-        <v>4512.5348</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65267.5536</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0236</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,40 +2542,40 @@
         <v>17.8772</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3416.2357</v>
       </c>
       <c r="F8" s="1">
         <v>579.3106</v>
       </c>
       <c r="G8" s="1">
-        <v>3995.5463</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>60756.0437</v>
       </c>
       <c r="I8" s="1">
-        <v>66182.5575</v>
+        <v>4403.9856</v>
       </c>
       <c r="J8" s="1">
-        <v>16.5641</v>
+        <v>65160.0292</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56182.5575</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4457</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10356.4523</v>
-      </c>
-      <c r="O8" s="1">
-        <v>4156.0825</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75214.87639999999</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0007</v>
@@ -2610,43 +2595,43 @@
         <v>18.1874</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3995.5463</v>
       </c>
       <c r="F9" s="1">
         <v>504.1849</v>
       </c>
       <c r="G9" s="1">
-        <v>4499.7313</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>72291.8195</v>
       </c>
       <c r="I9" s="1">
-        <v>75352.3705</v>
+        <v>4047.5332</v>
       </c>
       <c r="J9" s="1">
-        <v>16.746</v>
+        <v>76339.3527</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65352.3705</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3563</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9169.813</v>
       </c>
-      <c r="O9" s="1">
-        <v>4986.2695</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86400.35739999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0139</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.6132</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4499.7313</v>
       </c>
       <c r="F10" s="1">
         <v>740.664</v>
       </c>
       <c r="G10" s="1">
-        <v>5240.3953</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>78843.39139999999</v>
       </c>
       <c r="I10" s="1">
-        <v>88397.83409999999</v>
+        <v>4877.7202</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8685</v>
+        <v>83721.1116</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78397.83409999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4228</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13045.4636</v>
       </c>
-      <c r="O10" s="1">
-        <v>1940.8059</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93761.9642</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0274</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.806</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5240.3953</v>
       </c>
       <c r="F11" s="1">
         <v>533.6815</v>
       </c>
       <c r="G11" s="1">
-        <v>5774.0768</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92826.7901</v>
       </c>
       <c r="I11" s="1">
-        <v>97900.56690000001</v>
+        <v>1832.2566</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9552</v>
+        <v>94659.0468</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87900.56690000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.7737</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9502.7327</v>
       </c>
-      <c r="O11" s="1">
-        <v>2438.0732</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104718.3372</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0092</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.3524</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5774.0768</v>
       </c>
       <c r="F12" s="1">
         <v>403.8511</v>
       </c>
       <c r="G12" s="1">
-        <v>6177.9279</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105418.4748</v>
       </c>
       <c r="I12" s="1">
-        <v>105312.2041</v>
+        <v>2329.5239</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0465</v>
+        <v>107747.9987</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95312.2041</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5069</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7411.6372</v>
       </c>
-      <c r="O12" s="1">
-        <v>5026.436</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117818.1014</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.027</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.7873</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6177.9279</v>
       </c>
       <c r="F13" s="1">
         <v>793.2462</v>
       </c>
       <c r="G13" s="1">
-        <v>6971.1742</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>109319.0521</v>
       </c>
       <c r="I13" s="1">
-        <v>119421.913</v>
+        <v>4917.8867</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1308</v>
+        <v>114236.9388</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>109421.913</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7117</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14109.7089</v>
       </c>
-      <c r="O13" s="1">
-        <v>916.727</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124272.3508</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0277</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.1269</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6971.1742</v>
       </c>
       <c r="F14" s="1">
         <v>-6971.1742</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125710.4864</v>
       </c>
       <c r="I14" s="1">
-        <v>119421.913</v>
+        <v>808.1778</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1308</v>
+        <v>126518.6641</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>109421.913</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.6963</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125710.4864</v>
       </c>
-      <c r="O14" s="1">
-        <v>126627.2134</v>
-      </c>
-      <c r="P14" s="1">
-        <v>126627.2134</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0569</v>
+        <v>0.0184</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.9097</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>628.5474</v>
       </c>
       <c r="G2" s="1">
-        <v>628.5474</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1448</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9097</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1448</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>15.3909</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>628.5474</v>
       </c>
       <c r="F3" s="1">
         <v>649.7346</v>
       </c>
       <c r="G3" s="1">
-        <v>1278.2819</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19571.9027</v>
+        <v>9623.7515</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.646</v>
+        <v>9623.7515</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9097</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19571.9027</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.1095</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1278.2819</v>
       </c>
       <c r="F4" s="1">
         <v>612.4580999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1890.74</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20485.7465</v>
       </c>
       <c r="I4" s="1">
-        <v>29866.3938</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7961</v>
+        <v>20485.7465</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19866.3938</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5415</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9866.3938</v>
       </c>
-      <c r="O4" s="1">
-        <v>133.6062</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30434.6062</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0292</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.1222</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1890.74</v>
       </c>
       <c r="F5" s="1">
         <v>628.5498</v>
       </c>
       <c r="G5" s="1">
-        <v>2519.2899</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40405.8828</v>
+        <v>30324.8233</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>133.6062</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8775</v>
+        <v>30458.4296</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15.8668</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>340.3332</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9793.272999999999</v>
+        <v>230.0908</v>
       </c>
       <c r="O5" s="1">
-        <v>340.3332</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40746.216</v>
+        <v>-9903.5155</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0077</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.3453</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2519.2899</v>
       </c>
       <c r="F6" s="1">
         <v>436.9062</v>
       </c>
       <c r="G6" s="1">
-        <v>2956.1961</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>43471.1028</v>
       </c>
       <c r="I6" s="1">
-        <v>47578.2689</v>
+        <v>230.0908</v>
       </c>
       <c r="J6" s="1">
-        <v>16.0944</v>
+        <v>43701.1936</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37578.2689</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>14.9162</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7578.2689</v>
       </c>
-      <c r="O6" s="1">
-        <v>2762.0644</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53772.1145</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0596</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.8769</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2956.1961</v>
       </c>
       <c r="F7" s="1">
         <v>503.0627</v>
       </c>
       <c r="G7" s="1">
-        <v>3459.2588</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52573.5822</v>
       </c>
       <c r="I7" s="1">
-        <v>56571.4712</v>
+        <v>2651.8219</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3536</v>
+        <v>55225.4041</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46571.4712</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7539</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8993.202300000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>3768.862</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65289.0126</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0238</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,40 +3310,40 @@
         <v>17.8772</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3459.2588</v>
       </c>
       <c r="F8" s="1">
         <v>596.821</v>
       </c>
       <c r="G8" s="1">
-        <v>4056.0799</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61521.1884</v>
       </c>
       <c r="I8" s="1">
-        <v>67240.9602</v>
+        <v>3658.6196</v>
       </c>
       <c r="J8" s="1">
-        <v>16.5778</v>
+        <v>65179.808</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57240.9602</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.5472</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10669.489</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3099.373</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75234.7251</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0007</v>
@@ -3384,43 +3363,43 @@
         <v>18.1874</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4056.0799</v>
       </c>
       <c r="F9" s="1">
         <v>523.3845</v>
       </c>
       <c r="G9" s="1">
-        <v>4579.4643</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>73387.0583</v>
       </c>
       <c r="I9" s="1">
-        <v>76759.9626</v>
+        <v>2989.1305</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7618</v>
+        <v>76376.18889999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66759.9626</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.4592</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9519.002399999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>3580.3706</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86437.0762</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0141</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.6132</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4579.4643</v>
       </c>
       <c r="F10" s="1">
         <v>767.3193</v>
       </c>
       <c r="G10" s="1">
-        <v>5346.7836</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>80240.4577</v>
       </c>
       <c r="I10" s="1">
-        <v>90274.9106</v>
+        <v>3470.1281</v>
       </c>
       <c r="J10" s="1">
-        <v>16.884</v>
+        <v>83710.5858</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80274.9106</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.5293</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13514.948</v>
       </c>
-      <c r="O10" s="1">
-        <v>65.4226</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93750.69530000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0279</v>
+        <v>-0.0309</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.806</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5346.7836</v>
       </c>
       <c r="F11" s="1">
         <v>559.4994</v>
       </c>
       <c r="G11" s="1">
-        <v>5906.283</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>94711.3205</v>
       </c>
       <c r="I11" s="1">
-        <v>100237.3574</v>
+        <v>-44.8199</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9713</v>
+        <v>94666.5006</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90237.35739999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8769</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9962.4468</v>
       </c>
-      <c r="O11" s="1">
-        <v>102.9758</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104725.1012</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0094</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.3524</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5906.283</v>
       </c>
       <c r="F12" s="1">
         <v>429.2091</v>
       </c>
       <c r="G12" s="1">
-        <v>6335.4921</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107832.1902</v>
       </c>
       <c r="I12" s="1">
-        <v>108114.3745</v>
+        <v>-7.2666</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0649</v>
+        <v>107824.9236</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98114.37450000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.6119</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-7877.0171</v>
       </c>
-      <c r="O12" s="1">
-        <v>2225.9587</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117894.3053</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0276</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.7873</v>
       </c>
       <c r="E13" s="1">
+        <v>6335.4921</v>
+      </c>
+      <c r="F13" s="1">
+        <v>681.1442</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>687.342</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7022.8341</v>
-      </c>
       <c r="H13" s="1">
-        <v>124269.7523</v>
+        <v>112107.1665</v>
       </c>
       <c r="I13" s="1">
-        <v>120340.3332</v>
+        <v>2115.7162</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1356</v>
+        <v>114222.8828</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110230.0908</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3988</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12225.9587</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124269.7523</v>
+        <v>-12115.7162</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0283</v>
+        <v>-0.0306</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>18.1269</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7016.6363</v>
       </c>
       <c r="F14" s="1">
-        <v>-7022.8341</v>
+        <v>-7016.6363</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126530.301</v>
       </c>
       <c r="I14" s="1">
-        <v>120340.3332</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1356</v>
+        <v>126530.301</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110230.0908</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7098</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126642.0657</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126642.0657</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126642.0657</v>
+        <v>126530.301</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0568</v>
+        <v>0.0186</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.9097</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>628.5474</v>
       </c>
       <c r="G2" s="1">
-        <v>628.5474</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1448</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.9097</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1448</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>15.3909</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>628.5474</v>
       </c>
       <c r="F3" s="1">
         <v>649.7346</v>
       </c>
       <c r="G3" s="1">
-        <v>1278.2819</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19571.9027</v>
+        <v>9623.7515</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.646</v>
+        <v>9623.7515</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.9097</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19571.9027</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0189</v>
+        <v>-0.0376</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.1095</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1278.2819</v>
       </c>
       <c r="F4" s="1">
         <v>621.8959</v>
       </c>
       <c r="G4" s="1">
-        <v>1900.1778</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20485.7465</v>
       </c>
       <c r="I4" s="1">
-        <v>30018.4318</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7977</v>
+        <v>20485.7465</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20018.4318</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6604</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10018.4318</v>
       </c>
-      <c r="O4" s="1">
-        <v>-18.4318</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30433.8182</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0291</v>
+        <v>0.0439</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.1222</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1900.1778</v>
       </c>
       <c r="F5" s="1">
         <v>619.1195</v>
       </c>
       <c r="G5" s="1">
-        <v>2519.2973</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40406.002</v>
+        <v>30476.1922</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-18.4318</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8774</v>
+        <v>30457.7604</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15.788</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="L5" s="1">
-        <v>342.032</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9639.5362</v>
+        <v>230.0908</v>
       </c>
       <c r="O5" s="1">
-        <v>342.032</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>40748.034</v>
+        <v>-9751.4774</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0078</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.3453</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2519.2973</v>
       </c>
       <c r="F6" s="1">
         <v>466.6067</v>
       </c>
       <c r="G6" s="1">
-        <v>2985.904</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>43471.2311</v>
       </c>
       <c r="I6" s="1">
-        <v>48093.4328</v>
+        <v>230.0908</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1068</v>
+        <v>43701.3218</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38093.4328</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.1207</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8093.4328</v>
       </c>
-      <c r="O6" s="1">
-        <v>2248.5992</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53771.2685</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0596</v>
+        <v>0.08019999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.8769</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2985.904</v>
       </c>
       <c r="F7" s="1">
         <v>516.953</v>
       </c>
       <c r="G7" s="1">
-        <v>3502.857</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53101.9139</v>
       </c>
       <c r="I7" s="1">
-        <v>57334.9497</v>
+        <v>2136.658</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3681</v>
+        <v>55238.5719</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47334.9497</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8528</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9241.517</v>
       </c>
-      <c r="O7" s="1">
-        <v>3007.0823</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65302.5916</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.024</v>
+        <v>0.0286</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,40 +4078,40 @@
         <v>17.8772</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3502.857</v>
       </c>
       <c r="F8" s="1">
         <v>614.7703</v>
       </c>
       <c r="G8" s="1">
-        <v>4117.6273</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>62296.5602</v>
       </c>
       <c r="I8" s="1">
-        <v>68325.3207</v>
+        <v>2895.141</v>
       </c>
       <c r="J8" s="1">
-        <v>16.5934</v>
+        <v>65191.7012</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58325.3207</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.6508</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10990.371</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2016.7113</v>
-      </c>
-      <c r="P8" s="1">
-        <v>75246.6532</v>
       </c>
       <c r="Q8" s="3">
         <v>-0.0007</v>
@@ -4158,43 +4131,43 @@
         <v>18.1874</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4117.6273</v>
       </c>
       <c r="F9" s="1">
         <v>543.1766</v>
       </c>
       <c r="G9" s="1">
-        <v>4660.8039</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>74500.64169999999</v>
       </c>
       <c r="I9" s="1">
-        <v>78204.2916</v>
+        <v>1904.77</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7791</v>
+        <v>76405.4117</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68204.2916</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.564</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9878.9709</v>
       </c>
-      <c r="O9" s="1">
-        <v>2137.7404</v>
-      </c>
-      <c r="P9" s="1">
-        <v>86466.1314</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0143</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.6132</v>
       </c>
       <c r="E10" s="1">
+        <v>4660.8039</v>
+      </c>
+      <c r="F10" s="1">
+        <v>682.772</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>689.1275000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5349.9314</v>
-      </c>
       <c r="H10" s="1">
-        <v>93740.4279</v>
+        <v>81665.6738</v>
       </c>
       <c r="I10" s="1">
-        <v>90342.03200000001</v>
+        <v>2025.7991</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8866</v>
+        <v>83691.47289999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80230.09080000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.2138</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-12137.7404</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93740.4279</v>
+        <v>-12025.7991</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0283</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.806</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5343.5759</v>
       </c>
       <c r="F11" s="1">
         <v>561.6084</v>
       </c>
       <c r="G11" s="1">
-        <v>5911.5398</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104715.2433</v>
+        <v>94654.49980000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100342.032</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9739</v>
+        <v>94654.49980000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90230.09080000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8857</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>104715.2433</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0094</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.3524</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5905.1843</v>
       </c>
       <c r="F12" s="1">
         <v>544.8878999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6456.4277</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>117876.2919</v>
+        <v>107812.131</v>
       </c>
       <c r="I12" s="1">
-        <v>110342.032</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0903</v>
+        <v>107812.131</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100230.0908</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.9732</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117876.2919</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0276</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.7873</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6450.0722</v>
       </c>
       <c r="F13" s="1">
         <v>562.1989</v>
       </c>
       <c r="G13" s="1">
-        <v>7018.6266</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124195.2991</v>
+        <v>114134.6721</v>
       </c>
       <c r="I13" s="1">
-        <v>120342.032</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.1461</v>
+        <v>114134.6721</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110230.0908</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.0897</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124195.2991</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0288</v>
+        <v>-0.0312</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.1269</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7012.271</v>
       </c>
       <c r="F14" s="1">
-        <v>-7018.6266</v>
+        <v>-7012.271</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126451.5825</v>
       </c>
       <c r="I14" s="1">
-        <v>120342.032</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.1461</v>
+        <v>126451.5825</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110230.0908</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7196</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>126566.1912</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>126566.1912</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126566.1912</v>
+        <v>126451.5825</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0569</v>
+        <v>0.0187</v>
       </c>
     </row>
   </sheetData>
@@ -4479,9 +4452,9 @@
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>18.078</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.1427</v>
+        <v>15.7163</v>
       </c>
       <c r="D3" s="1">
-        <v>17.1148</v>
+        <v>15.6402</v>
       </c>
       <c r="E3" s="1">
-        <v>17.1308</v>
+        <v>15.6963</v>
       </c>
       <c r="F3" s="1">
-        <v>17.1356</v>
+        <v>15.7098</v>
       </c>
       <c r="G3" s="1">
-        <v>17.1461</v>
+        <v>15.7196</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1371</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0388</v>
+        <v>0.1268</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0376</v>
+        <v>0.1252</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0385</v>
+        <v>0.1263</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0388</v>
+        <v>0.1267</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0383</v>
+        <v>0.1261</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1097</v>
       </c>
       <c r="C5" s="3">
-        <v>0.106</v>
+        <v>0.1138</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1044</v>
+        <v>0.1111</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1049</v>
+        <v>0.1121</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1054</v>
+        <v>0.1129</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1057</v>
+        <v>0.1134</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.0642</v>
       </c>
       <c r="C6" s="4">
-        <v>0.1744</v>
+        <v>0.9356</v>
       </c>
       <c r="D6" s="4">
-        <v>0.1652</v>
+        <v>0.944</v>
       </c>
       <c r="E6" s="4">
-        <v>0.173</v>
+        <v>0.9451000000000001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1755</v>
+        <v>0.9423</v>
       </c>
       <c r="G6" s="4">
-        <v>0.1697</v>
+        <v>0.9329</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1032</v>
+        <v>-0.0563</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1084</v>
+        <v>0.1065</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1074</v>
+        <v>0.1055</v>
       </c>
       <c r="F7" s="3">
-        <v>0.106</v>
+        <v>0.1041</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1039</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>341.8261</v>
+        <v>230.0908</v>
       </c>
       <c r="D8" s="1">
-        <v>336.9525</v>
+        <v>230.0908</v>
       </c>
       <c r="E8" s="1">
-        <v>338.64</v>
+        <v>230.0908</v>
       </c>
       <c r="F8" s="1">
-        <v>340.3332</v>
+        <v>230.0908</v>
       </c>
       <c r="G8" s="1">
-        <v>342.032</v>
+        <v>230.0908</v>
       </c>
     </row>
   </sheetData>
